--- a/VAR.xlsx
+++ b/VAR.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="77">
   <si>
     <t>n.d.</t>
   </si>
@@ -246,76 +246,10 @@
     <t>2019-1</t>
   </si>
   <si>
-    <t>2002</t>
-  </si>
-  <si>
-    <t>2003</t>
-  </si>
-  <si>
-    <t>2004</t>
-  </si>
-  <si>
-    <t>2005</t>
-  </si>
-  <si>
-    <t>2006</t>
-  </si>
-  <si>
-    <t>2007</t>
-  </si>
-  <si>
-    <t>2008</t>
-  </si>
-  <si>
-    <t>2009</t>
-  </si>
-  <si>
-    <t>2010</t>
-  </si>
-  <si>
-    <t>2011</t>
-  </si>
-  <si>
-    <t>2012</t>
-  </si>
-  <si>
-    <t>2013</t>
-  </si>
-  <si>
-    <t>2014</t>
-  </si>
-  <si>
-    <t>2015</t>
-  </si>
-  <si>
-    <t>2016</t>
-  </si>
-  <si>
-    <t>2017</t>
-  </si>
-  <si>
-    <t>2018</t>
-  </si>
-  <si>
-    <t>2019</t>
-  </si>
-  <si>
     <t>Trimestre</t>
   </si>
   <si>
     <t>Año</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>4</t>
   </si>
 </sst>
 </file>
@@ -349,8 +283,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -657,8 +592,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G70"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
+      <selection activeCell="C68" sqref="C68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -677,10 +612,10 @@
         <v>5</v>
       </c>
       <c r="E1" t="s">
-        <v>93</v>
+        <v>75</v>
       </c>
       <c r="F1" t="s">
-        <v>94</v>
+        <v>76</v>
       </c>
       <c r="G1" t="s">
         <v>2</v>
@@ -699,11 +634,11 @@
       <c r="D2">
         <v>44212.043871757603</v>
       </c>
-      <c r="E2" t="s">
-        <v>95</v>
-      </c>
-      <c r="F2" t="s">
-        <v>75</v>
+      <c r="E2" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2" s="1">
+        <v>2002</v>
       </c>
       <c r="G2" t="s">
         <v>6</v>
@@ -722,11 +657,11 @@
       <c r="D3">
         <v>50107.051681812802</v>
       </c>
-      <c r="E3" t="s">
-        <v>96</v>
-      </c>
-      <c r="F3" t="s">
-        <v>75</v>
+      <c r="E3" s="1">
+        <v>2</v>
+      </c>
+      <c r="F3" s="1">
+        <v>2002</v>
       </c>
       <c r="G3" t="s">
         <v>7</v>
@@ -745,11 +680,11 @@
       <c r="D4">
         <v>46395.662549545603</v>
       </c>
-      <c r="E4" t="s">
-        <v>97</v>
-      </c>
-      <c r="F4" t="s">
-        <v>75</v>
+      <c r="E4" s="1">
+        <v>3</v>
+      </c>
+      <c r="F4" s="1">
+        <v>2002</v>
       </c>
       <c r="G4" t="s">
         <v>8</v>
@@ -768,11 +703,11 @@
       <c r="D5">
         <v>49026.689246866699</v>
       </c>
-      <c r="E5" t="s">
-        <v>98</v>
-      </c>
-      <c r="F5" t="s">
-        <v>75</v>
+      <c r="E5" s="1">
+        <v>4</v>
+      </c>
+      <c r="F5" s="1">
+        <v>2002</v>
       </c>
       <c r="G5" t="s">
         <v>9</v>
@@ -791,11 +726,11 @@
       <c r="D6">
         <v>48046.4821535796</v>
       </c>
-      <c r="E6" t="s">
-        <v>95</v>
-      </c>
-      <c r="F6" t="s">
-        <v>76</v>
+      <c r="E6" s="1">
+        <v>1</v>
+      </c>
+      <c r="F6" s="1">
+        <v>2003</v>
       </c>
       <c r="G6" t="s">
         <v>10</v>
@@ -814,11 +749,11 @@
       <c r="D7">
         <v>53841.769118640099</v>
       </c>
-      <c r="E7" t="s">
-        <v>96</v>
-      </c>
-      <c r="F7" t="s">
-        <v>76</v>
+      <c r="E7" s="1">
+        <v>2</v>
+      </c>
+      <c r="F7" s="1">
+        <v>2003</v>
       </c>
       <c r="G7" t="s">
         <v>11</v>
@@ -837,11 +772,11 @@
       <c r="D8">
         <v>49844.400978235702</v>
       </c>
-      <c r="E8" t="s">
-        <v>97</v>
-      </c>
-      <c r="F8" t="s">
-        <v>76</v>
+      <c r="E8" s="1">
+        <v>3</v>
+      </c>
+      <c r="F8" s="1">
+        <v>2003</v>
       </c>
       <c r="G8" t="s">
         <v>12</v>
@@ -860,11 +795,11 @@
       <c r="D9">
         <v>51879.960410425701</v>
       </c>
-      <c r="E9" t="s">
-        <v>98</v>
-      </c>
-      <c r="F9" t="s">
-        <v>76</v>
+      <c r="E9" s="1">
+        <v>4</v>
+      </c>
+      <c r="F9" s="1">
+        <v>2003</v>
       </c>
       <c r="G9" t="s">
         <v>13</v>
@@ -883,11 +818,11 @@
       <c r="D10">
         <v>52968.527670167299</v>
       </c>
-      <c r="E10" t="s">
-        <v>95</v>
-      </c>
-      <c r="F10" t="s">
-        <v>77</v>
+      <c r="E10" s="1">
+        <v>1</v>
+      </c>
+      <c r="F10" s="1">
+        <v>2004</v>
       </c>
       <c r="G10" t="s">
         <v>14</v>
@@ -906,11 +841,11 @@
       <c r="D11">
         <v>60214.787721700901</v>
       </c>
-      <c r="E11" t="s">
-        <v>96</v>
-      </c>
-      <c r="F11" t="s">
-        <v>77</v>
+      <c r="E11" s="1">
+        <v>2</v>
+      </c>
+      <c r="F11" s="1">
+        <v>2004</v>
       </c>
       <c r="G11" t="s">
         <v>15</v>
@@ -929,11 +864,11 @@
       <c r="D12">
         <v>54514.135311840299</v>
       </c>
-      <c r="E12" t="s">
-        <v>97</v>
-      </c>
-      <c r="F12" t="s">
-        <v>77</v>
+      <c r="E12" s="1">
+        <v>3</v>
+      </c>
+      <c r="F12" s="1">
+        <v>2004</v>
       </c>
       <c r="G12" t="s">
         <v>16</v>
@@ -952,11 +887,11 @@
       <c r="D13">
         <v>57994.368029888399</v>
       </c>
-      <c r="E13" t="s">
-        <v>98</v>
-      </c>
-      <c r="F13" t="s">
-        <v>77</v>
+      <c r="E13" s="1">
+        <v>4</v>
+      </c>
+      <c r="F13" s="1">
+        <v>2004</v>
       </c>
       <c r="G13" t="s">
         <v>17</v>
@@ -975,11 +910,11 @@
       <c r="D14">
         <v>56365.016151819102</v>
       </c>
-      <c r="E14" t="s">
-        <v>95</v>
-      </c>
-      <c r="F14" t="s">
-        <v>78</v>
+      <c r="E14" s="1">
+        <v>1</v>
+      </c>
+      <c r="F14" s="1">
+        <v>2005</v>
       </c>
       <c r="G14" t="s">
         <v>18</v>
@@ -998,11 +933,11 @@
       <c r="D15">
         <v>63968.254349708797</v>
       </c>
-      <c r="E15" t="s">
-        <v>96</v>
-      </c>
-      <c r="F15" t="s">
-        <v>78</v>
+      <c r="E15" s="1">
+        <v>2</v>
+      </c>
+      <c r="F15" s="1">
+        <v>2005</v>
       </c>
       <c r="G15" t="s">
         <v>19</v>
@@ -1021,11 +956,11 @@
       <c r="D16">
         <v>59665.082572215098</v>
       </c>
-      <c r="E16" t="s">
-        <v>97</v>
-      </c>
-      <c r="F16" t="s">
-        <v>78</v>
+      <c r="E16" s="1">
+        <v>3</v>
+      </c>
+      <c r="F16" s="1">
+        <v>2005</v>
       </c>
       <c r="G16" t="s">
         <v>20</v>
@@ -1044,11 +979,11 @@
       <c r="D17">
         <v>64653.2471887231</v>
       </c>
-      <c r="E17" t="s">
-        <v>98</v>
-      </c>
-      <c r="F17" t="s">
-        <v>78</v>
+      <c r="E17" s="1">
+        <v>4</v>
+      </c>
+      <c r="F17" s="1">
+        <v>2005</v>
       </c>
       <c r="G17" t="s">
         <v>21</v>
@@ -1067,11 +1002,11 @@
       <c r="D18">
         <v>65462.008468462802</v>
       </c>
-      <c r="E18" t="s">
-        <v>95</v>
-      </c>
-      <c r="F18" t="s">
-        <v>79</v>
+      <c r="E18" s="1">
+        <v>1</v>
+      </c>
+      <c r="F18" s="1">
+        <v>2006</v>
       </c>
       <c r="G18" t="s">
         <v>22</v>
@@ -1090,11 +1025,11 @@
       <c r="D19">
         <v>74272.236033194</v>
       </c>
-      <c r="E19" t="s">
-        <v>96</v>
-      </c>
-      <c r="F19" t="s">
-        <v>79</v>
+      <c r="E19" s="1">
+        <v>2</v>
+      </c>
+      <c r="F19" s="1">
+        <v>2006</v>
       </c>
       <c r="G19" t="s">
         <v>23</v>
@@ -1113,11 +1048,11 @@
       <c r="D20">
         <v>71663.306078512498</v>
       </c>
-      <c r="E20" t="s">
-        <v>97</v>
-      </c>
-      <c r="F20" t="s">
-        <v>79</v>
+      <c r="E20" s="1">
+        <v>3</v>
+      </c>
+      <c r="F20" s="1">
+        <v>2006</v>
       </c>
       <c r="G20" t="s">
         <v>24</v>
@@ -1136,11 +1071,11 @@
       <c r="D21">
         <v>74916.5331596537</v>
       </c>
-      <c r="E21" t="s">
-        <v>98</v>
-      </c>
-      <c r="F21" t="s">
-        <v>79</v>
+      <c r="E21" s="1">
+        <v>4</v>
+      </c>
+      <c r="F21" s="1">
+        <v>2006</v>
       </c>
       <c r="G21" t="s">
         <v>25</v>
@@ -1159,11 +1094,11 @@
       <c r="D22">
         <v>73353.8223477219</v>
       </c>
-      <c r="E22" t="s">
-        <v>95</v>
-      </c>
-      <c r="F22" t="s">
-        <v>80</v>
+      <c r="E22" s="1">
+        <v>1</v>
+      </c>
+      <c r="F22" s="1">
+        <v>2007</v>
       </c>
       <c r="G22" t="s">
         <v>26</v>
@@ -1182,11 +1117,11 @@
       <c r="D23">
         <v>80625.630687436598</v>
       </c>
-      <c r="E23" t="s">
-        <v>96</v>
-      </c>
-      <c r="F23" t="s">
-        <v>80</v>
+      <c r="E23" s="1">
+        <v>2</v>
+      </c>
+      <c r="F23" s="1">
+        <v>2007</v>
       </c>
       <c r="G23" t="s">
         <v>27</v>
@@ -1205,11 +1140,11 @@
       <c r="D24">
         <v>80689.081253260199</v>
       </c>
-      <c r="E24" t="s">
-        <v>97</v>
-      </c>
-      <c r="F24" t="s">
-        <v>80</v>
+      <c r="E24" s="1">
+        <v>3</v>
+      </c>
+      <c r="F24" s="1">
+        <v>2007</v>
       </c>
       <c r="G24" t="s">
         <v>28</v>
@@ -1228,11 +1163,11 @@
       <c r="D25">
         <v>85024.4647115814</v>
       </c>
-      <c r="E25" t="s">
-        <v>98</v>
-      </c>
-      <c r="F25" t="s">
-        <v>80</v>
+      <c r="E25" s="1">
+        <v>4</v>
+      </c>
+      <c r="F25" s="1">
+        <v>2007</v>
       </c>
       <c r="G25" t="s">
         <v>29</v>
@@ -1251,11 +1186,11 @@
       <c r="D26">
         <v>82144.638356972195</v>
       </c>
-      <c r="E26" t="s">
-        <v>95</v>
-      </c>
-      <c r="F26" t="s">
-        <v>81</v>
+      <c r="E26" s="1">
+        <v>1</v>
+      </c>
+      <c r="F26" s="1">
+        <v>2008</v>
       </c>
       <c r="G26" t="s">
         <v>30</v>
@@ -1274,11 +1209,11 @@
       <c r="D27">
         <v>91618.210702366006</v>
       </c>
-      <c r="E27" t="s">
-        <v>96</v>
-      </c>
-      <c r="F27" t="s">
-        <v>81</v>
+      <c r="E27" s="1">
+        <v>2</v>
+      </c>
+      <c r="F27" s="1">
+        <v>2008</v>
       </c>
       <c r="G27" t="s">
         <v>31</v>
@@ -1297,11 +1232,11 @@
       <c r="D28">
         <v>90968.654853025204</v>
       </c>
-      <c r="E28" t="s">
-        <v>97</v>
-      </c>
-      <c r="F28" t="s">
-        <v>81</v>
+      <c r="E28" s="1">
+        <v>3</v>
+      </c>
+      <c r="F28" s="1">
+        <v>2008</v>
       </c>
       <c r="G28" t="s">
         <v>32</v>
@@ -1320,11 +1255,11 @@
       <c r="D29">
         <v>91398.806831953203</v>
       </c>
-      <c r="E29" t="s">
-        <v>98</v>
-      </c>
-      <c r="F29" t="s">
-        <v>81</v>
+      <c r="E29" s="1">
+        <v>4</v>
+      </c>
+      <c r="F29" s="1">
+        <v>2008</v>
       </c>
       <c r="G29" t="s">
         <v>33</v>
@@ -1343,11 +1278,11 @@
       <c r="D30">
         <v>83633.322505354605</v>
       </c>
-      <c r="E30" t="s">
-        <v>95</v>
-      </c>
-      <c r="F30" t="s">
-        <v>82</v>
+      <c r="E30" s="1">
+        <v>1</v>
+      </c>
+      <c r="F30" s="1">
+        <v>2009</v>
       </c>
       <c r="G30" t="s">
         <v>34</v>
@@ -1366,11 +1301,11 @@
       <c r="D31">
         <v>90577.970355568701</v>
       </c>
-      <c r="E31" t="s">
-        <v>96</v>
-      </c>
-      <c r="F31" t="s">
-        <v>82</v>
+      <c r="E31" s="1">
+        <v>2</v>
+      </c>
+      <c r="F31" s="1">
+        <v>2009</v>
       </c>
       <c r="G31" t="s">
         <v>35</v>
@@ -1389,11 +1324,11 @@
       <c r="D32">
         <v>91243.915526934696</v>
       </c>
-      <c r="E32" t="s">
-        <v>97</v>
-      </c>
-      <c r="F32" t="s">
-        <v>82</v>
+      <c r="E32" s="1">
+        <v>3</v>
+      </c>
+      <c r="F32" s="1">
+        <v>2009</v>
       </c>
       <c r="G32" t="s">
         <v>36</v>
@@ -1412,11 +1347,11 @@
       <c r="D33">
         <v>100396.887465457</v>
       </c>
-      <c r="E33" t="s">
-        <v>98</v>
-      </c>
-      <c r="F33" t="s">
-        <v>82</v>
+      <c r="E33" s="1">
+        <v>4</v>
+      </c>
+      <c r="F33" s="1">
+        <v>2009</v>
       </c>
       <c r="G33" t="s">
         <v>37</v>
@@ -1435,11 +1370,11 @@
       <c r="D34">
         <v>93716.975239531894</v>
       </c>
-      <c r="E34" t="s">
-        <v>95</v>
-      </c>
-      <c r="F34" t="s">
-        <v>83</v>
+      <c r="E34" s="1">
+        <v>1</v>
+      </c>
+      <c r="F34" s="1">
+        <v>2010</v>
       </c>
       <c r="G34" t="s">
         <v>38</v>
@@ -1458,11 +1393,11 @@
       <c r="D35">
         <v>105643.27001345099</v>
       </c>
-      <c r="E35" t="s">
-        <v>96</v>
-      </c>
-      <c r="F35" t="s">
-        <v>83</v>
+      <c r="E35" s="1">
+        <v>2</v>
+      </c>
+      <c r="F35" s="1">
+        <v>2010</v>
       </c>
       <c r="G35" t="s">
         <v>39</v>
@@ -1481,11 +1416,11 @@
       <c r="D36">
         <v>106424.931088089</v>
       </c>
-      <c r="E36" t="s">
-        <v>97</v>
-      </c>
-      <c r="F36" t="s">
-        <v>83</v>
+      <c r="E36" s="1">
+        <v>3</v>
+      </c>
+      <c r="F36" s="1">
+        <v>2010</v>
       </c>
       <c r="G36" t="s">
         <v>40</v>
@@ -1504,11 +1439,11 @@
       <c r="D37">
         <v>114952.415690191</v>
       </c>
-      <c r="E37" t="s">
-        <v>98</v>
-      </c>
-      <c r="F37" t="s">
-        <v>83</v>
+      <c r="E37" s="1">
+        <v>4</v>
+      </c>
+      <c r="F37" s="1">
+        <v>2010</v>
       </c>
       <c r="G37" t="s">
         <v>41</v>
@@ -1527,11 +1462,11 @@
       <c r="D38">
         <v>108016.264017304</v>
       </c>
-      <c r="E38" t="s">
-        <v>95</v>
-      </c>
-      <c r="F38" t="s">
-        <v>84</v>
+      <c r="E38" s="1">
+        <v>1</v>
+      </c>
+      <c r="F38" s="1">
+        <v>2011</v>
       </c>
       <c r="G38" t="s">
         <v>42</v>
@@ -1550,11 +1485,11 @@
       <c r="D39">
         <v>117492.555769756</v>
       </c>
-      <c r="E39" t="s">
-        <v>96</v>
-      </c>
-      <c r="F39" t="s">
-        <v>84</v>
+      <c r="E39" s="1">
+        <v>2</v>
+      </c>
+      <c r="F39" s="1">
+        <v>2011</v>
       </c>
       <c r="G39" t="s">
         <v>43</v>
@@ -1573,11 +1508,11 @@
       <c r="D40">
         <v>119538.503326046</v>
       </c>
-      <c r="E40" t="s">
-        <v>97</v>
-      </c>
-      <c r="F40" t="s">
-        <v>84</v>
+      <c r="E40" s="1">
+        <v>3</v>
+      </c>
+      <c r="F40" s="1">
+        <v>2011</v>
       </c>
       <c r="G40" t="s">
         <v>44</v>
@@ -1596,11 +1531,11 @@
       <c r="D41">
         <v>125875.211099031</v>
       </c>
-      <c r="E41" t="s">
-        <v>98</v>
-      </c>
-      <c r="F41" t="s">
-        <v>84</v>
+      <c r="E41" s="1">
+        <v>4</v>
+      </c>
+      <c r="F41" s="1">
+        <v>2011</v>
       </c>
       <c r="G41" t="s">
         <v>45</v>
@@ -1619,11 +1554,11 @@
       <c r="D42">
         <v>116933.42625623599</v>
       </c>
-      <c r="E42" t="s">
-        <v>95</v>
-      </c>
-      <c r="F42" t="s">
-        <v>85</v>
+      <c r="E42" s="1">
+        <v>1</v>
+      </c>
+      <c r="F42" s="1">
+        <v>2012</v>
       </c>
       <c r="G42" t="s">
         <v>46</v>
@@ -1642,11 +1577,11 @@
       <c r="D43">
         <v>125849.704117805</v>
       </c>
-      <c r="E43" t="s">
-        <v>96</v>
-      </c>
-      <c r="F43" t="s">
-        <v>85</v>
+      <c r="E43" s="1">
+        <v>2</v>
+      </c>
+      <c r="F43" s="1">
+        <v>2012</v>
       </c>
       <c r="G43" t="s">
         <v>47</v>
@@ -1665,11 +1600,11 @@
       <c r="D44">
         <v>128337.929345173</v>
       </c>
-      <c r="E44" t="s">
-        <v>97</v>
-      </c>
-      <c r="F44" t="s">
-        <v>85</v>
+      <c r="E44" s="1">
+        <v>3</v>
+      </c>
+      <c r="F44" s="1">
+        <v>2012</v>
       </c>
       <c r="G44" t="s">
         <v>48</v>
@@ -1688,11 +1623,11 @@
       <c r="D45">
         <v>137596.03863842599</v>
       </c>
-      <c r="E45" t="s">
-        <v>98</v>
-      </c>
-      <c r="F45" t="s">
-        <v>85</v>
+      <c r="E45" s="1">
+        <v>4</v>
+      </c>
+      <c r="F45" s="1">
+        <v>2012</v>
       </c>
       <c r="G45" t="s">
         <v>49</v>
@@ -1711,11 +1646,11 @@
       <c r="D46">
         <v>125774.55820047</v>
       </c>
-      <c r="E46" t="s">
-        <v>95</v>
-      </c>
-      <c r="F46" t="s">
-        <v>86</v>
+      <c r="E46" s="1">
+        <v>1</v>
+      </c>
+      <c r="F46" s="1">
+        <v>2013</v>
       </c>
       <c r="G46" t="s">
         <v>50</v>
@@ -1734,11 +1669,11 @@
       <c r="D47">
         <v>136158.020543586</v>
       </c>
-      <c r="E47" t="s">
-        <v>96</v>
-      </c>
-      <c r="F47" t="s">
-        <v>86</v>
+      <c r="E47" s="1">
+        <v>2</v>
+      </c>
+      <c r="F47" s="1">
+        <v>2013</v>
       </c>
       <c r="G47" t="s">
         <v>51</v>
@@ -1757,11 +1692,11 @@
       <c r="D48">
         <v>138703.682612526</v>
       </c>
-      <c r="E48" t="s">
-        <v>97</v>
-      </c>
-      <c r="F48" t="s">
-        <v>86</v>
+      <c r="E48" s="1">
+        <v>3</v>
+      </c>
+      <c r="F48" s="1">
+        <v>2013</v>
       </c>
       <c r="G48" t="s">
         <v>52</v>
@@ -1780,11 +1715,11 @@
       <c r="D49">
         <v>145487.73566788799</v>
       </c>
-      <c r="E49" t="s">
-        <v>98</v>
-      </c>
-      <c r="F49" t="s">
-        <v>86</v>
+      <c r="E49" s="1">
+        <v>4</v>
+      </c>
+      <c r="F49" s="1">
+        <v>2013</v>
       </c>
       <c r="G49" t="s">
         <v>53</v>
@@ -1803,11 +1738,11 @@
       <c r="D50">
         <v>134141.39239785899</v>
       </c>
-      <c r="E50" t="s">
-        <v>95</v>
-      </c>
-      <c r="F50" t="s">
-        <v>87</v>
+      <c r="E50" s="1">
+        <v>1</v>
+      </c>
+      <c r="F50" s="1">
+        <v>2014</v>
       </c>
       <c r="G50" t="s">
         <v>54</v>
@@ -1826,11 +1761,11 @@
       <c r="D51">
         <v>142461.39369894701</v>
       </c>
-      <c r="E51" t="s">
-        <v>96</v>
-      </c>
-      <c r="F51" t="s">
-        <v>87</v>
+      <c r="E51" s="1">
+        <v>2</v>
+      </c>
+      <c r="F51" s="1">
+        <v>2014</v>
       </c>
       <c r="G51" t="s">
         <v>55</v>
@@ -1849,11 +1784,11 @@
       <c r="D52">
         <v>145493.57099257901</v>
       </c>
-      <c r="E52" t="s">
-        <v>97</v>
-      </c>
-      <c r="F52" t="s">
-        <v>87</v>
+      <c r="E52" s="1">
+        <v>3</v>
+      </c>
+      <c r="F52" s="1">
+        <v>2014</v>
       </c>
       <c r="G52" t="s">
         <v>56</v>
@@ -1872,11 +1807,11 @@
       <c r="D53">
         <v>152205.35824245901</v>
       </c>
-      <c r="E53" t="s">
-        <v>98</v>
-      </c>
-      <c r="F53" t="s">
-        <v>87</v>
+      <c r="E53" s="1">
+        <v>4</v>
+      </c>
+      <c r="F53" s="1">
+        <v>2014</v>
       </c>
       <c r="G53" t="s">
         <v>57</v>
@@ -1895,11 +1830,11 @@
       <c r="D54">
         <v>140583.36175880799</v>
       </c>
-      <c r="E54" t="s">
-        <v>95</v>
-      </c>
-      <c r="F54" t="s">
-        <v>88</v>
+      <c r="E54" s="1">
+        <v>1</v>
+      </c>
+      <c r="F54" s="1">
+        <v>2015</v>
       </c>
       <c r="G54" t="s">
         <v>58</v>
@@ -1918,11 +1853,11 @@
       <c r="D55">
         <v>152350.123856747</v>
       </c>
-      <c r="E55" t="s">
-        <v>96</v>
-      </c>
-      <c r="F55" t="s">
-        <v>88</v>
+      <c r="E55" s="1">
+        <v>2</v>
+      </c>
+      <c r="F55" s="1">
+        <v>2015</v>
       </c>
       <c r="G55" t="s">
         <v>59</v>
@@ -1941,11 +1876,11 @@
       <c r="D56">
         <v>153474.76422678301</v>
       </c>
-      <c r="E56" t="s">
-        <v>97</v>
-      </c>
-      <c r="F56" t="s">
-        <v>88</v>
+      <c r="E56" s="1">
+        <v>3</v>
+      </c>
+      <c r="F56" s="1">
+        <v>2015</v>
       </c>
       <c r="G56" t="s">
         <v>60</v>
@@ -1964,11 +1899,11 @@
       <c r="D57">
         <v>162956.43573308401</v>
       </c>
-      <c r="E57" t="s">
-        <v>98</v>
-      </c>
-      <c r="F57" t="s">
-        <v>88</v>
+      <c r="E57" s="1">
+        <v>4</v>
+      </c>
+      <c r="F57" s="1">
+        <v>2015</v>
       </c>
       <c r="G57" t="s">
         <v>61</v>
@@ -1987,11 +1922,11 @@
       <c r="D58">
         <v>151791.060895943</v>
       </c>
-      <c r="E58" t="s">
-        <v>95</v>
-      </c>
-      <c r="F58" t="s">
-        <v>89</v>
+      <c r="E58" s="1">
+        <v>1</v>
+      </c>
+      <c r="F58" s="1">
+        <v>2016</v>
       </c>
       <c r="G58" t="s">
         <v>62</v>
@@ -2010,11 +1945,11 @@
       <c r="D59">
         <v>162663.15993276401</v>
       </c>
-      <c r="E59" t="s">
-        <v>96</v>
-      </c>
-      <c r="F59" t="s">
-        <v>89</v>
+      <c r="E59" s="1">
+        <v>2</v>
+      </c>
+      <c r="F59" s="1">
+        <v>2016</v>
       </c>
       <c r="G59" t="s">
         <v>63</v>
@@ -2033,11 +1968,11 @@
       <c r="D60">
         <v>166590.836986715</v>
       </c>
-      <c r="E60" t="s">
-        <v>97</v>
-      </c>
-      <c r="F60" t="s">
-        <v>89</v>
+      <c r="E60" s="1">
+        <v>3</v>
+      </c>
+      <c r="F60" s="1">
+        <v>2016</v>
       </c>
       <c r="G60" t="s">
         <v>64</v>
@@ -2056,11 +1991,11 @@
       <c r="D61">
         <v>175092.53191631599</v>
       </c>
-      <c r="E61" t="s">
-        <v>98</v>
-      </c>
-      <c r="F61" t="s">
-        <v>89</v>
+      <c r="E61" s="1">
+        <v>4</v>
+      </c>
+      <c r="F61" s="1">
+        <v>2016</v>
       </c>
       <c r="G61" t="s">
         <v>65</v>
@@ -2079,11 +2014,11 @@
       <c r="D62">
         <v>161662.74862699801</v>
       </c>
-      <c r="E62" t="s">
-        <v>95</v>
-      </c>
-      <c r="F62" t="s">
-        <v>90</v>
+      <c r="E62" s="1">
+        <v>1</v>
+      </c>
+      <c r="F62" s="1">
+        <v>2017</v>
       </c>
       <c r="G62" t="s">
         <v>66</v>
@@ -2102,11 +2037,11 @@
       <c r="D63">
         <v>172629.11271620801</v>
       </c>
-      <c r="E63" t="s">
-        <v>96</v>
-      </c>
-      <c r="F63" t="s">
-        <v>90</v>
+      <c r="E63" s="1">
+        <v>2</v>
+      </c>
+      <c r="F63" s="1">
+        <v>2017</v>
       </c>
       <c r="G63" t="s">
         <v>67</v>
@@ -2125,11 +2060,11 @@
       <c r="D64">
         <v>177918.748128309</v>
       </c>
-      <c r="E64" t="s">
-        <v>97</v>
-      </c>
-      <c r="F64" t="s">
-        <v>90</v>
+      <c r="E64" s="1">
+        <v>3</v>
+      </c>
+      <c r="F64" s="1">
+        <v>2017</v>
       </c>
       <c r="G64" t="s">
         <v>68</v>
@@ -2148,11 +2083,11 @@
       <c r="D65">
         <v>186200.95928025001</v>
       </c>
-      <c r="E65" t="s">
-        <v>98</v>
-      </c>
-      <c r="F65" t="s">
-        <v>90</v>
+      <c r="E65" s="1">
+        <v>4</v>
+      </c>
+      <c r="F65" s="1">
+        <v>2017</v>
       </c>
       <c r="G65" t="s">
         <v>69</v>
@@ -2171,11 +2106,11 @@
       <c r="D66">
         <v>172174.854661914</v>
       </c>
-      <c r="E66" t="s">
-        <v>95</v>
-      </c>
-      <c r="F66" t="s">
-        <v>91</v>
+      <c r="E66" s="1">
+        <v>1</v>
+      </c>
+      <c r="F66" s="1">
+        <v>2018</v>
       </c>
       <c r="G66" t="s">
         <v>70</v>
@@ -2194,11 +2129,11 @@
       <c r="D67">
         <v>187716.54126701201</v>
       </c>
-      <c r="E67" t="s">
-        <v>96</v>
-      </c>
-      <c r="F67" t="s">
-        <v>91</v>
+      <c r="E67" s="1">
+        <v>2</v>
+      </c>
+      <c r="F67" s="1">
+        <v>2018</v>
       </c>
       <c r="G67" t="s">
         <v>71</v>
@@ -2217,11 +2152,11 @@
       <c r="D68">
         <v>184272.15302222801</v>
       </c>
-      <c r="E68" t="s">
-        <v>97</v>
-      </c>
-      <c r="F68" t="s">
-        <v>91</v>
+      <c r="E68" s="1">
+        <v>3</v>
+      </c>
+      <c r="F68" s="1">
+        <v>2018</v>
       </c>
       <c r="G68" t="s">
         <v>72</v>
@@ -2240,11 +2175,11 @@
       <c r="D69">
         <v>196335.71180465401</v>
       </c>
-      <c r="E69" t="s">
-        <v>98</v>
-      </c>
-      <c r="F69" t="s">
-        <v>91</v>
+      <c r="E69" s="1">
+        <v>4</v>
+      </c>
+      <c r="F69" s="1">
+        <v>2018</v>
       </c>
       <c r="G69" t="s">
         <v>73</v>
@@ -2263,11 +2198,11 @@
       <c r="D70" t="s">
         <v>0</v>
       </c>
-      <c r="E70" t="s">
-        <v>95</v>
-      </c>
-      <c r="F70" t="s">
-        <v>92</v>
+      <c r="E70" s="1">
+        <v>1</v>
+      </c>
+      <c r="F70" s="1">
+        <v>2019</v>
       </c>
       <c r="G70" t="s">
         <v>74</v>

--- a/VAR.xlsx
+++ b/VAR.xlsx
@@ -19,10 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="77">
-  <si>
-    <t>n.d.</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="76">
   <si>
     <t>INVERSION</t>
   </si>
@@ -593,32 +590,32 @@
   <dimension ref="A1:G70"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
-      <selection activeCell="C68" sqref="C68"/>
+      <selection activeCell="A70" sqref="A70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F1" t="s">
+        <v>75</v>
+      </c>
+      <c r="G1" t="s">
         <v>1</v>
-      </c>
-      <c r="B1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E1" t="s">
-        <v>75</v>
-      </c>
-      <c r="F1" t="s">
-        <v>76</v>
-      </c>
-      <c r="G1" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -641,7 +638,7 @@
         <v>2002</v>
       </c>
       <c r="G2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -664,7 +661,7 @@
         <v>2002</v>
       </c>
       <c r="G3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -687,7 +684,7 @@
         <v>2002</v>
       </c>
       <c r="G4" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -710,7 +707,7 @@
         <v>2002</v>
       </c>
       <c r="G5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -733,7 +730,7 @@
         <v>2003</v>
       </c>
       <c r="G6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -756,7 +753,7 @@
         <v>2003</v>
       </c>
       <c r="G7" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -779,7 +776,7 @@
         <v>2003</v>
       </c>
       <c r="G8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -802,7 +799,7 @@
         <v>2003</v>
       </c>
       <c r="G9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -825,7 +822,7 @@
         <v>2004</v>
       </c>
       <c r="G10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -848,7 +845,7 @@
         <v>2004</v>
       </c>
       <c r="G11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -871,7 +868,7 @@
         <v>2004</v>
       </c>
       <c r="G12" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -894,7 +891,7 @@
         <v>2004</v>
       </c>
       <c r="G13" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -917,7 +914,7 @@
         <v>2005</v>
       </c>
       <c r="G14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -940,7 +937,7 @@
         <v>2005</v>
       </c>
       <c r="G15" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -963,7 +960,7 @@
         <v>2005</v>
       </c>
       <c r="G16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -986,7 +983,7 @@
         <v>2005</v>
       </c>
       <c r="G17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -1009,7 +1006,7 @@
         <v>2006</v>
       </c>
       <c r="G18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -1032,7 +1029,7 @@
         <v>2006</v>
       </c>
       <c r="G19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -1055,7 +1052,7 @@
         <v>2006</v>
       </c>
       <c r="G20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -1078,7 +1075,7 @@
         <v>2006</v>
       </c>
       <c r="G21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -1101,7 +1098,7 @@
         <v>2007</v>
       </c>
       <c r="G22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -1124,7 +1121,7 @@
         <v>2007</v>
       </c>
       <c r="G23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -1147,7 +1144,7 @@
         <v>2007</v>
       </c>
       <c r="G24" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -1170,7 +1167,7 @@
         <v>2007</v>
       </c>
       <c r="G25" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -1193,7 +1190,7 @@
         <v>2008</v>
       </c>
       <c r="G26" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -1216,7 +1213,7 @@
         <v>2008</v>
       </c>
       <c r="G27" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -1239,7 +1236,7 @@
         <v>2008</v>
       </c>
       <c r="G28" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
@@ -1262,7 +1259,7 @@
         <v>2008</v>
       </c>
       <c r="G29" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
@@ -1285,7 +1282,7 @@
         <v>2009</v>
       </c>
       <c r="G30" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
@@ -1308,7 +1305,7 @@
         <v>2009</v>
       </c>
       <c r="G31" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
@@ -1331,7 +1328,7 @@
         <v>2009</v>
       </c>
       <c r="G32" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
@@ -1354,7 +1351,7 @@
         <v>2009</v>
       </c>
       <c r="G33" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
@@ -1377,7 +1374,7 @@
         <v>2010</v>
       </c>
       <c r="G34" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
@@ -1400,7 +1397,7 @@
         <v>2010</v>
       </c>
       <c r="G35" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
@@ -1423,7 +1420,7 @@
         <v>2010</v>
       </c>
       <c r="G36" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
@@ -1446,7 +1443,7 @@
         <v>2010</v>
       </c>
       <c r="G37" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
@@ -1469,7 +1466,7 @@
         <v>2011</v>
       </c>
       <c r="G38" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
@@ -1492,7 +1489,7 @@
         <v>2011</v>
       </c>
       <c r="G39" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
@@ -1515,7 +1512,7 @@
         <v>2011</v>
       </c>
       <c r="G40" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
@@ -1538,7 +1535,7 @@
         <v>2011</v>
       </c>
       <c r="G41" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
@@ -1561,7 +1558,7 @@
         <v>2012</v>
       </c>
       <c r="G42" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
@@ -1584,7 +1581,7 @@
         <v>2012</v>
       </c>
       <c r="G43" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
@@ -1607,7 +1604,7 @@
         <v>2012</v>
       </c>
       <c r="G44" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
@@ -1630,7 +1627,7 @@
         <v>2012</v>
       </c>
       <c r="G45" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
@@ -1653,7 +1650,7 @@
         <v>2013</v>
       </c>
       <c r="G46" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
@@ -1676,7 +1673,7 @@
         <v>2013</v>
       </c>
       <c r="G47" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
@@ -1699,7 +1696,7 @@
         <v>2013</v>
       </c>
       <c r="G48" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
@@ -1722,7 +1719,7 @@
         <v>2013</v>
       </c>
       <c r="G49" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
@@ -1745,7 +1742,7 @@
         <v>2014</v>
       </c>
       <c r="G50" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
@@ -1768,7 +1765,7 @@
         <v>2014</v>
       </c>
       <c r="G51" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
@@ -1791,7 +1788,7 @@
         <v>2014</v>
       </c>
       <c r="G52" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
@@ -1814,7 +1811,7 @@
         <v>2014</v>
       </c>
       <c r="G53" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
@@ -1837,7 +1834,7 @@
         <v>2015</v>
       </c>
       <c r="G54" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
@@ -1860,7 +1857,7 @@
         <v>2015</v>
       </c>
       <c r="G55" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
@@ -1883,7 +1880,7 @@
         <v>2015</v>
       </c>
       <c r="G56" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
@@ -1906,7 +1903,7 @@
         <v>2015</v>
       </c>
       <c r="G57" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
@@ -1929,7 +1926,7 @@
         <v>2016</v>
       </c>
       <c r="G58" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
@@ -1952,7 +1949,7 @@
         <v>2016</v>
       </c>
       <c r="G59" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
@@ -1975,7 +1972,7 @@
         <v>2016</v>
       </c>
       <c r="G60" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
@@ -1998,7 +1995,7 @@
         <v>2016</v>
       </c>
       <c r="G61" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
@@ -2021,7 +2018,7 @@
         <v>2017</v>
       </c>
       <c r="G62" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
@@ -2044,7 +2041,7 @@
         <v>2017</v>
       </c>
       <c r="G63" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
@@ -2067,7 +2064,7 @@
         <v>2017</v>
       </c>
       <c r="G64" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
@@ -2090,7 +2087,7 @@
         <v>2017</v>
       </c>
       <c r="G65" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
@@ -2113,7 +2110,7 @@
         <v>2018</v>
       </c>
       <c r="G66" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
@@ -2136,7 +2133,7 @@
         <v>2018</v>
       </c>
       <c r="G67" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
@@ -2159,7 +2156,7 @@
         <v>2018</v>
       </c>
       <c r="G68" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
@@ -2182,22 +2179,16 @@
         <v>2018</v>
       </c>
       <c r="G69" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>0</v>
-      </c>
       <c r="B70">
         <v>131.424577</v>
       </c>
       <c r="C70">
         <v>21098.07</v>
       </c>
-      <c r="D70" t="s">
-        <v>0</v>
-      </c>
       <c r="E70" s="1">
         <v>1</v>
       </c>
@@ -2205,7 +2196,7 @@
         <v>2019</v>
       </c>
       <c r="G70" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>

--- a/VAR.xlsx
+++ b/VAR.xlsx
@@ -589,8 +589,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
-      <selection activeCell="A70" sqref="A70"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/VAR.xlsx
+++ b/VAR.xlsx
@@ -280,9 +280,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -589,11 +590,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G70"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="B70" sqref="B70:C70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="3" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.5703125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -619,16 +624,16 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="A2" s="2">
         <v>6900.8831027953001</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="2">
         <v>81.506551999999999</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="2">
         <v>1299.76</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="2">
         <v>44212.043871757603</v>
       </c>
       <c r="E2" s="1">
@@ -642,16 +647,16 @@
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="A3" s="2">
         <v>10743.9024639335</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="2">
         <v>82.028109000000001</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="2">
         <v>1134.93</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="2">
         <v>50107.051681812802</v>
       </c>
       <c r="E3" s="1">
@@ -665,16 +670,16 @@
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="A4" s="2">
         <v>5656.3846873866996</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="2">
         <v>82.528013999999999</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="2">
         <v>1150.07</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="2">
         <v>46395.662549545603</v>
       </c>
       <c r="E4" s="1">
@@ -688,16 +693,16 @@
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="A5" s="2">
         <v>8350.9877940325296</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="2">
         <v>82.761628999999999</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="2">
         <v>1391.97</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="2">
         <v>49026.689246866699</v>
       </c>
       <c r="E5" s="1">
@@ -711,16 +716,16 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="A6" s="2">
         <v>8800.4571418189498</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="2">
         <v>84.273641999999995</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="2">
         <v>1558.9</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="2">
         <v>48046.4821535796</v>
       </c>
       <c r="E6" s="1">
@@ -734,16 +739,16 @@
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7">
+      <c r="A7" s="2">
         <v>11709.360823064</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="2">
         <v>83.805414999999996</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="2">
         <v>1824.88</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="2">
         <v>53841.769118640099</v>
       </c>
       <c r="E7" s="1">
@@ -757,16 +762,16 @@
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8">
+      <c r="A8" s="2">
         <v>6804.81755321535</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="2">
         <v>84.159122999999994</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="2">
         <v>1980.83</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="2">
         <v>49844.400978235702</v>
       </c>
       <c r="E8" s="1">
@@ -780,16 +785,16 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9">
+      <c r="A9" s="2">
         <v>7761.0746668284301</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="2">
         <v>84.817223999999996</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="2">
         <v>2435.04</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="2">
         <v>51879.960410425701</v>
       </c>
       <c r="E9" s="1">
@@ -803,16 +808,16 @@
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10">
+      <c r="A10" s="2">
         <v>8256.3561726020598</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="2">
         <v>86.596113000000003</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="2">
         <v>3035.72</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="2">
         <v>52968.527670167299</v>
       </c>
       <c r="E10" s="1">
@@ -826,16 +831,16 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11">
+      <c r="A11" s="2">
         <v>14255.8317379767</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="2">
         <v>87.372591999999997</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="2">
         <v>2885.9</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="2">
         <v>60214.787721700901</v>
       </c>
       <c r="E11" s="1">
@@ -849,16 +854,16 @@
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12">
+      <c r="A12" s="2">
         <v>5431.9077234106999</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="2">
         <v>87.547573</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="2">
         <v>3278.8</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="2">
         <v>54514.135311840299</v>
       </c>
       <c r="E12" s="1">
@@ -872,16 +877,16 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13">
+      <c r="A13" s="2">
         <v>8438.4843095147407</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="2">
         <v>87.769779999999997</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="2">
         <v>3710.39</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="2">
         <v>57994.368029888399</v>
       </c>
       <c r="E13" s="1">
@@ -895,16 +900,16 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14">
+      <c r="A14" s="2">
         <v>7712.1387117882396</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="2">
         <v>88.221456000000003</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="2">
         <v>4158.8500000000004</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="2">
         <v>56365.016151819102</v>
       </c>
       <c r="E14" s="1">
@@ -918,16 +923,16 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15">
+      <c r="A15" s="2">
         <v>13866.259840480299</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="2">
         <v>88.671115</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="2">
         <v>4038.07</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="2">
         <v>63968.254349708797</v>
       </c>
       <c r="E15" s="1">
@@ -941,16 +946,16 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16">
+      <c r="A16" s="2">
         <v>6667.9471621194898</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="2">
         <v>88.520915000000002</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="2">
         <v>5070.83</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="2">
         <v>59665.082572215098</v>
       </c>
       <c r="E16" s="1">
@@ -964,16 +969,16 @@
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17">
+      <c r="A17" s="2">
         <v>9397.1400032122201</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="2">
         <v>89.081288999999998</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="2">
         <v>4802.25</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="2">
         <v>64653.2471887231</v>
       </c>
       <c r="E17" s="1">
@@ -987,16 +992,16 @@
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18">
+      <c r="A18" s="2">
         <v>12894.076552770401</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="2">
         <v>90.428725</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="2">
         <v>5920.5</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="2">
         <v>65462.008468462802</v>
       </c>
       <c r="E18" s="1">
@@ -1010,16 +1015,16 @@
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19">
+      <c r="A19" s="2">
         <v>16864.530808195901</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="2">
         <v>90.290235999999993</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="2">
         <v>8155.8</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="2">
         <v>74272.236033194</v>
       </c>
       <c r="E19" s="1">
@@ -1033,16 +1038,16 @@
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20">
+      <c r="A20" s="2">
         <v>10418.363811143399</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="2">
         <v>90.286649999999995</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="2">
         <v>10390.34</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="2">
         <v>71663.306078512498</v>
       </c>
       <c r="E20" s="1">
@@ -1056,16 +1061,16 @@
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21">
+      <c r="A21" s="2">
         <v>13646.6125553325</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="2">
         <v>90.094575000000006</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="2">
         <v>12884.2</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="2">
         <v>74916.5331596537</v>
       </c>
       <c r="E21" s="1">
@@ -1079,16 +1084,16 @@
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22">
+      <c r="A22" s="2">
         <v>14603.9685074877</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="2">
         <v>90.651983999999999</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="2">
         <v>17152.82</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="2">
         <v>73353.8223477219</v>
       </c>
       <c r="E22" s="1">
@@ -1102,16 +1107,16 @@
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23">
+      <c r="A23" s="2">
         <v>19618.018441988399</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="2">
         <v>91.688860000000005</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="2">
         <v>22365.9</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="2">
         <v>80625.630687436598</v>
       </c>
       <c r="E23" s="1">
@@ -1125,16 +1130,16 @@
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24">
+      <c r="A24" s="2">
         <v>16995.991084965</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="2">
         <v>92.816046</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="2">
         <v>21823.439999999999</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="2">
         <v>80689.081253260199</v>
       </c>
       <c r="E24" s="1">
@@ -1148,16 +1153,16 @@
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25">
+      <c r="A25" s="2">
         <v>19969.7732261727</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="2">
         <v>93.633201</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="2">
         <v>17524.79</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="2">
         <v>85024.4647115814</v>
       </c>
       <c r="E25" s="1">
@@ -1171,16 +1176,16 @@
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26">
+      <c r="A26" s="2">
         <v>18500.473503164401</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="2">
         <v>95.678818000000007</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="2">
         <v>17387.47</v>
       </c>
-      <c r="D26">
+      <c r="D26" s="2">
         <v>82144.638356972195</v>
       </c>
       <c r="E26" s="1">
@@ -1194,16 +1199,16 @@
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27">
+      <c r="A27" s="2">
         <v>25603.496237519499</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="2">
         <v>96.920651000000007</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="2">
         <v>16293.97</v>
       </c>
-      <c r="D27">
+      <c r="D27" s="2">
         <v>91618.210702366006</v>
       </c>
       <c r="E27" s="1">
@@ -1217,16 +1222,16 @@
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28">
+      <c r="A28" s="2">
         <v>24367.3517506799</v>
       </c>
-      <c r="B28">
+      <c r="B28" s="2">
         <v>98.590552000000002</v>
       </c>
-      <c r="C28">
+      <c r="C28" s="2">
         <v>11248.42</v>
       </c>
-      <c r="D28">
+      <c r="D28" s="2">
         <v>90968.654853025204</v>
       </c>
       <c r="E28" s="1">
@@ -1240,16 +1245,16 @@
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29">
+      <c r="A29" s="2">
         <v>28119.618807225601</v>
       </c>
-      <c r="B29">
+      <c r="B29" s="2">
         <v>99.860003000000006</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="2">
         <v>7048.67</v>
       </c>
-      <c r="D29">
+      <c r="D29" s="2">
         <v>91398.806831953203</v>
       </c>
       <c r="E29" s="1">
@@ -1263,16 +1268,16 @@
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30">
+      <c r="A30" s="2">
         <v>17256.676514412899</v>
       </c>
-      <c r="B30">
+      <c r="B30" s="2">
         <v>100.250699</v>
       </c>
-      <c r="C30">
+      <c r="C30" s="2">
         <v>9237.65</v>
       </c>
-      <c r="D30">
+      <c r="D30" s="2">
         <v>83633.322505354605</v>
       </c>
       <c r="E30" s="1">
@@ -1286,16 +1291,16 @@
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31">
+      <c r="A31" s="2">
         <v>18564.0823158036</v>
       </c>
-      <c r="B31">
+      <c r="B31" s="2">
         <v>99.886290000000002</v>
       </c>
-      <c r="C31">
+      <c r="C31" s="2">
         <v>13059.7</v>
       </c>
-      <c r="D31">
+      <c r="D31" s="2">
         <v>90577.970355568701</v>
       </c>
       <c r="E31" s="1">
@@ -1309,16 +1314,16 @@
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32">
+      <c r="A32" s="2">
         <v>15982.9608509429</v>
       </c>
-      <c r="B32">
+      <c r="B32" s="2">
         <v>99.778142000000003</v>
       </c>
-      <c r="C32">
+      <c r="C32" s="2">
         <v>15144.2</v>
       </c>
-      <c r="D32">
+      <c r="D32" s="2">
         <v>91243.915526934696</v>
       </c>
       <c r="E32" s="1">
@@ -1332,16 +1337,16 @@
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33">
+      <c r="A33" s="2">
         <v>22513.547516866201</v>
       </c>
-      <c r="B33">
+      <c r="B33" s="2">
         <v>100.10497599999999</v>
       </c>
-      <c r="C33">
+      <c r="C33" s="2">
         <v>14167.2</v>
       </c>
-      <c r="D33">
+      <c r="D33" s="2">
         <v>100396.887465457</v>
       </c>
       <c r="E33" s="1">
@@ -1355,16 +1360,16 @@
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34">
+      <c r="A34" s="2">
         <v>19697.606383756101</v>
       </c>
-      <c r="B34">
+      <c r="B34" s="2">
         <v>101.007853</v>
       </c>
-      <c r="C34">
+      <c r="C34" s="2">
         <v>15129</v>
       </c>
-      <c r="D34">
+      <c r="D34" s="2">
         <v>93716.975239531894</v>
       </c>
       <c r="E34" s="1">
@@ -1378,16 +1383,16 @@
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35">
+      <c r="A35" s="2">
         <v>27052.8516164963</v>
       </c>
-      <c r="B35">
+      <c r="B35" s="2">
         <v>101.527828</v>
       </c>
-      <c r="C35">
+      <c r="C35" s="2">
         <v>13985.01</v>
       </c>
-      <c r="D35">
+      <c r="D35" s="2">
         <v>105643.27001345099</v>
       </c>
       <c r="E35" s="1">
@@ -1401,16 +1406,16 @@
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36">
+      <c r="A36" s="2">
         <v>25040.669912982699</v>
       </c>
-      <c r="B36">
+      <c r="B36" s="2">
         <v>102.138251</v>
       </c>
-      <c r="C36">
+      <c r="C36" s="2">
         <v>17867.36</v>
       </c>
-      <c r="D36">
+      <c r="D36" s="2">
         <v>106424.931088089</v>
       </c>
       <c r="E36" s="1">
@@ -1424,16 +1429,16 @@
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37">
+      <c r="A37" s="2">
         <v>30954.349512458401</v>
       </c>
-      <c r="B37">
+      <c r="B37" s="2">
         <v>102.1836</v>
       </c>
-      <c r="C37">
+      <c r="C37" s="2">
         <v>23374.57</v>
       </c>
-      <c r="D37">
+      <c r="D37" s="2">
         <v>114952.415690191</v>
       </c>
       <c r="E37" s="1">
@@ -1447,16 +1452,16 @@
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38">
+      <c r="A38" s="2">
         <v>25621.818291272801</v>
       </c>
-      <c r="B38">
+      <c r="B38" s="2">
         <v>103.698122</v>
       </c>
-      <c r="C38">
+      <c r="C38" s="2">
         <v>21957.49</v>
       </c>
-      <c r="D38">
+      <c r="D38" s="2">
         <v>108016.264017304</v>
       </c>
       <c r="E38" s="1">
@@ -1470,16 +1475,16 @@
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39">
+      <c r="A39" s="2">
         <v>29173.028427396199</v>
       </c>
-      <c r="B39">
+      <c r="B39" s="2">
         <v>104.482951</v>
       </c>
-      <c r="C39">
+      <c r="C39" s="2">
         <v>18878.78</v>
       </c>
-      <c r="D39">
+      <c r="D39" s="2">
         <v>117492.555769756</v>
       </c>
       <c r="E39" s="1">
@@ -1493,16 +1498,16 @@
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40">
+      <c r="A40" s="2">
         <v>26744.882083841199</v>
       </c>
-      <c r="B40">
+      <c r="B40" s="2">
         <v>105.944258</v>
       </c>
-      <c r="C40">
+      <c r="C40" s="2">
         <v>18329.099999999999</v>
       </c>
-      <c r="D40">
+      <c r="D40" s="2">
         <v>119538.503326046</v>
       </c>
       <c r="E40" s="1">
@@ -1516,16 +1521,16 @@
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41">
+      <c r="A41" s="2">
         <v>33507.900816866801</v>
       </c>
-      <c r="B41">
+      <c r="B41" s="2">
         <v>107.02548899999999</v>
       </c>
-      <c r="C41">
+      <c r="C41" s="2">
         <v>19473.71</v>
       </c>
-      <c r="D41">
+      <c r="D41" s="2">
         <v>125875.211099031</v>
       </c>
       <c r="E41" s="1">
@@ -1539,16 +1544,16 @@
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42">
+      <c r="A42" s="2">
         <v>24278.211922901701</v>
       </c>
-      <c r="B42">
+      <c r="B42" s="2">
         <v>108.086095</v>
       </c>
-      <c r="C42">
+      <c r="C42" s="2">
         <v>23612.02</v>
       </c>
-      <c r="D42">
+      <c r="D42" s="2">
         <v>116933.42625623599</v>
       </c>
       <c r="E42" s="1">
@@ -1562,16 +1567,16 @@
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43">
+      <c r="A43" s="2">
         <v>31448.4890075904</v>
       </c>
-      <c r="B43">
+      <c r="B43" s="2">
         <v>108.663388</v>
       </c>
-      <c r="C43">
+      <c r="C43" s="2">
         <v>20207.16</v>
       </c>
-      <c r="D43">
+      <c r="D43" s="2">
         <v>125849.704117805</v>
       </c>
       <c r="E43" s="1">
@@ -1585,16 +1590,16 @@
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44">
+      <c r="A44" s="2">
         <v>31957.168402175499</v>
       </c>
-      <c r="B44">
+      <c r="B44" s="2">
         <v>109.907777</v>
       </c>
-      <c r="C44">
+      <c r="C44" s="2">
         <v>21674.79</v>
       </c>
-      <c r="D44">
+      <c r="D44" s="2">
         <v>128337.929345173</v>
       </c>
       <c r="E44" s="1">
@@ -1608,16 +1613,16 @@
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45">
+      <c r="A45" s="2">
         <v>34695.0652646413</v>
       </c>
-      <c r="B45">
+      <c r="B45" s="2">
         <v>109.860989</v>
       </c>
-      <c r="C45">
+      <c r="C45" s="2">
         <v>20629.349999999999</v>
       </c>
-      <c r="D45">
+      <c r="D45" s="2">
         <v>137596.03863842599</v>
       </c>
       <c r="E45" s="1">
@@ -1631,16 +1636,16 @@
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46">
+      <c r="A46" s="2">
         <v>32093.5477128368</v>
       </c>
-      <c r="B46">
+      <c r="B46" s="2">
         <v>110.887497</v>
       </c>
-      <c r="C46">
+      <c r="C46" s="2">
         <v>19858.95</v>
       </c>
-      <c r="D46">
+      <c r="D46" s="2">
         <v>125774.55820047</v>
       </c>
       <c r="E46" s="1">
@@ -1654,16 +1659,16 @@
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47">
+      <c r="A47" s="2">
         <v>36248.275093971599</v>
       </c>
-      <c r="B47">
+      <c r="B47" s="2">
         <v>111.67416299999999</v>
       </c>
-      <c r="C47">
+      <c r="C47" s="2">
         <v>15549.55</v>
       </c>
-      <c r="D47">
+      <c r="D47" s="2">
         <v>136158.020543586</v>
       </c>
       <c r="E47" s="1">
@@ -1677,16 +1682,16 @@
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48">
+      <c r="A48" s="2">
         <v>35814.320780478803</v>
       </c>
-      <c r="B48">
+      <c r="B48" s="2">
         <v>113.019091</v>
       </c>
-      <c r="C48">
+      <c r="C48" s="2">
         <v>15919.71</v>
       </c>
-      <c r="D48">
+      <c r="D48" s="2">
         <v>138703.682612526</v>
       </c>
       <c r="E48" s="1">
@@ -1700,16 +1705,16 @@
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49">
+      <c r="A49" s="2">
         <v>35733.167656224803</v>
       </c>
-      <c r="B49">
+      <c r="B49" s="2">
         <v>113.002663</v>
       </c>
-      <c r="C49">
+      <c r="C49" s="2">
         <v>15753.65</v>
       </c>
-      <c r="D49">
+      <c r="D49" s="2">
         <v>145487.73566788799</v>
       </c>
       <c r="E49" s="1">
@@ -1723,16 +1728,16 @@
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50">
+      <c r="A50" s="2">
         <v>32989.803835556399</v>
       </c>
-      <c r="B50">
+      <c r="B50" s="2">
         <v>114.633197</v>
       </c>
-      <c r="C50">
+      <c r="C50" s="2">
         <v>14298.92</v>
       </c>
-      <c r="D50">
+      <c r="D50" s="2">
         <v>134141.39239785899</v>
       </c>
       <c r="E50" s="1">
@@ -1746,16 +1751,16 @@
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51">
+      <c r="A51" s="2">
         <v>35359.272745479801</v>
       </c>
-      <c r="B51">
+      <c r="B51" s="2">
         <v>115.526534</v>
       </c>
-      <c r="C51">
+      <c r="C51" s="2">
         <v>16662.28</v>
       </c>
-      <c r="D51">
+      <c r="D51" s="2">
         <v>142461.39369894701</v>
       </c>
       <c r="E51" s="1">
@@ -1769,16 +1774,16 @@
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52">
+      <c r="A52" s="2">
         <v>36138.170491138997</v>
       </c>
-      <c r="B52">
+      <c r="B52" s="2">
         <v>116.11385</v>
       </c>
-      <c r="C52">
+      <c r="C52" s="2">
         <v>16226.61</v>
       </c>
-      <c r="D52">
+      <c r="D52" s="2">
         <v>145493.57099257901</v>
       </c>
       <c r="E52" s="1">
@@ -1792,16 +1797,16 @@
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53">
+      <c r="A53" s="2">
         <v>37308.592717246996</v>
       </c>
-      <c r="B53">
+      <c r="B53" s="2">
         <v>116.645938</v>
       </c>
-      <c r="C53">
+      <c r="C53" s="2">
         <v>14794.32</v>
       </c>
-      <c r="D53">
+      <c r="D53" s="2">
         <v>152205.35824245901</v>
       </c>
       <c r="E53" s="1">
@@ -1815,16 +1820,16 @@
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54">
+      <c r="A54" s="2">
         <v>34747.836783848397</v>
       </c>
-      <c r="B54">
+      <c r="B54" s="2">
         <v>118.095348</v>
       </c>
-      <c r="C54">
+      <c r="C54" s="2">
         <v>12461.81</v>
       </c>
-      <c r="D54">
+      <c r="D54" s="2">
         <v>140583.36175880799</v>
       </c>
       <c r="E54" s="1">
@@ -1838,16 +1843,16 @@
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55">
+      <c r="A55" s="2">
         <v>37025.924938040203</v>
       </c>
-      <c r="B55">
+      <c r="B55" s="2">
         <v>119.62184600000001</v>
       </c>
-      <c r="C55">
+      <c r="C55" s="2">
         <v>13113.17</v>
       </c>
-      <c r="D55">
+      <c r="D55" s="2">
         <v>152350.123856747</v>
       </c>
       <c r="E55" s="1">
@@ -1861,16 +1866,16 @@
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56">
+      <c r="A56" s="2">
         <v>36425.303320412997</v>
       </c>
-      <c r="B56">
+      <c r="B56" s="2">
         <v>120.64757899999999</v>
       </c>
-      <c r="C56">
+      <c r="C56" s="2">
         <v>10030.57</v>
       </c>
-      <c r="D56">
+      <c r="D56" s="2">
         <v>153474.76422678301</v>
       </c>
       <c r="E56" s="1">
@@ -1884,16 +1889,16 @@
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57">
+      <c r="A57" s="2">
         <v>36113.103283003104</v>
       </c>
-      <c r="B57">
+      <c r="B57" s="2">
         <v>121.775943</v>
       </c>
-      <c r="C57">
+      <c r="C57" s="2">
         <v>9848.59</v>
       </c>
-      <c r="D57">
+      <c r="D57" s="2">
         <v>162956.43573308401</v>
       </c>
       <c r="E57" s="1">
@@ -1907,16 +1912,16 @@
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58">
+      <c r="A58" s="2">
         <v>33965.635594151099</v>
       </c>
-      <c r="B58">
+      <c r="B58" s="2">
         <v>123.174724</v>
       </c>
-      <c r="C58">
+      <c r="C58" s="2">
         <v>12057.93</v>
       </c>
-      <c r="D58">
+      <c r="D58" s="2">
         <v>151791.060895943</v>
       </c>
       <c r="E58" s="1">
@@ -1930,16 +1935,16 @@
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A59">
+      <c r="A59" s="2">
         <v>35435.801576359503</v>
       </c>
-      <c r="B59">
+      <c r="B59" s="2">
         <v>123.619152</v>
       </c>
-      <c r="C59">
+      <c r="C59" s="2">
         <v>13856.9</v>
       </c>
-      <c r="D59">
+      <c r="D59" s="2">
         <v>162663.15993276401</v>
       </c>
       <c r="E59" s="1">
@@ -1953,16 +1958,16 @@
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A60">
+      <c r="A60" s="2">
         <v>36128.658366461197</v>
       </c>
-      <c r="B60">
+      <c r="B60" s="2">
         <v>124.419832</v>
       </c>
-      <c r="C60">
+      <c r="C60" s="2">
         <v>15296.98</v>
       </c>
-      <c r="D60">
+      <c r="D60" s="2">
         <v>166590.836986715</v>
       </c>
       <c r="E60" s="1">
@@ -1976,16 +1981,16 @@
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61">
+      <c r="A61" s="2">
         <v>38098.521410699497</v>
       </c>
-      <c r="B61">
+      <c r="B61" s="2">
         <v>125.71525099999999</v>
       </c>
-      <c r="C61">
+      <c r="C61" s="2">
         <v>15566.96</v>
       </c>
-      <c r="D61">
+      <c r="D61" s="2">
         <v>175092.53191631599</v>
       </c>
       <c r="E61" s="1">
@@ -1999,16 +2004,16 @@
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62">
+      <c r="A62" s="2">
         <v>32650.7325149674</v>
       </c>
-      <c r="B62">
+      <c r="B62" s="2">
         <v>128.07074</v>
       </c>
-      <c r="C62">
+      <c r="C62" s="2">
         <v>15757.01</v>
       </c>
-      <c r="D62">
+      <c r="D62" s="2">
         <v>161662.74862699801</v>
       </c>
       <c r="E62" s="1">
@@ -2022,16 +2027,16 @@
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A63">
+      <c r="A63" s="2">
         <v>33736.440261510201</v>
       </c>
-      <c r="B63">
+      <c r="B63" s="2">
         <v>126.996976</v>
       </c>
-      <c r="C63">
+      <c r="C63" s="2">
         <v>16132.87</v>
       </c>
-      <c r="D63">
+      <c r="D63" s="2">
         <v>172629.11271620801</v>
       </c>
       <c r="E63" s="1">
@@ -2045,16 +2050,16 @@
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A64">
+      <c r="A64" s="2">
         <v>36204.972503160301</v>
       </c>
-      <c r="B64">
+      <c r="B64" s="2">
         <v>128.08399</v>
       </c>
-      <c r="C64">
+      <c r="C64" s="2">
         <v>18087.419999999998</v>
       </c>
-      <c r="D64">
+      <c r="D64" s="2">
         <v>177918.748128309</v>
       </c>
       <c r="E64" s="1">
@@ -2068,16 +2073,16 @@
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A65">
+      <c r="A65" s="2">
         <v>40644.527936527396</v>
       </c>
-      <c r="B65">
+      <c r="B65" s="2">
         <v>127.431083</v>
       </c>
-      <c r="C65">
+      <c r="C65" s="2">
         <v>19974.38</v>
       </c>
-      <c r="D65">
+      <c r="D65" s="2">
         <v>186200.95928025001</v>
       </c>
       <c r="E65" s="1">
@@ -2091,16 +2096,16 @@
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A66">
+      <c r="A66" s="2">
         <v>35825.723947376202</v>
       </c>
-      <c r="B66">
+      <c r="B66" s="2">
         <v>128.535811</v>
       </c>
-      <c r="C66">
+      <c r="C66" s="2">
         <v>20558.84</v>
       </c>
-      <c r="D66">
+      <c r="D66" s="2">
         <v>172174.854661914</v>
       </c>
       <c r="E66" s="1">
@@ -2114,16 +2119,16 @@
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A67">
+      <c r="A67" s="2">
         <v>39111.220297068598</v>
       </c>
-      <c r="B67">
+      <c r="B67" s="2">
         <v>128.81218699999999</v>
       </c>
-      <c r="C67">
+      <c r="C67" s="2">
         <v>19800.259999999998</v>
       </c>
-      <c r="D67">
+      <c r="D67" s="2">
         <v>187716.54126701201</v>
       </c>
       <c r="E67" s="1">
@@ -2137,16 +2142,16 @@
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A68">
+      <c r="A68" s="2">
         <v>39375.642266960996</v>
       </c>
-      <c r="B68">
+      <c r="B68" s="2">
         <v>129.72382500000001</v>
       </c>
-      <c r="C68">
+      <c r="C68" s="2">
         <v>19564.07</v>
       </c>
-      <c r="D68">
+      <c r="D68" s="2">
         <v>184272.15302222801</v>
       </c>
       <c r="E68" s="1">
@@ -2160,16 +2165,16 @@
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A69">
+      <c r="A69" s="2">
         <v>44384.2982040528</v>
       </c>
-      <c r="B69">
+      <c r="B69" s="2">
         <v>130.22503900000001</v>
       </c>
-      <c r="C69">
+      <c r="C69" s="2">
         <v>19350.400000000001</v>
       </c>
-      <c r="D69">
+      <c r="D69" s="2">
         <v>196335.71180465401</v>
       </c>
       <c r="E69" s="1">
@@ -2183,10 +2188,10 @@
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B70">
+      <c r="B70" s="2">
         <v>131.424577</v>
       </c>
-      <c r="C70">
+      <c r="C70" s="2">
         <v>21098.07</v>
       </c>
       <c r="E70" s="1">

--- a/VAR.xlsx
+++ b/VAR.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="75">
   <si>
     <t>INVERSION</t>
   </si>
@@ -238,9 +238,6 @@
   </si>
   <si>
     <t>2018-4</t>
-  </si>
-  <si>
-    <t>2019-1</t>
   </si>
   <si>
     <t>Trimestre</t>
@@ -588,10 +585,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G70"/>
+  <dimension ref="A1:G69"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="B70" sqref="B70:C70"/>
+      <selection activeCell="B70" sqref="B70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -614,10 +611,10 @@
         <v>4</v>
       </c>
       <c r="E1" t="s">
+        <v>73</v>
+      </c>
+      <c r="F1" t="s">
         <v>74</v>
-      </c>
-      <c r="F1" t="s">
-        <v>75</v>
       </c>
       <c r="G1" t="s">
         <v>1</v>
@@ -2185,23 +2182,6 @@
       </c>
       <c r="G69" t="s">
         <v>72</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B70" s="2">
-        <v>131.424577</v>
-      </c>
-      <c r="C70" s="2">
-        <v>21098.07</v>
-      </c>
-      <c r="E70" s="1">
-        <v>1</v>
-      </c>
-      <c r="F70" s="1">
-        <v>2019</v>
-      </c>
-      <c r="G70" t="s">
-        <v>73</v>
       </c>
     </row>
   </sheetData>

--- a/VAR.xlsx
+++ b/VAR.xlsx
@@ -36,214 +36,214 @@
     <t>PBI</t>
   </si>
   <si>
-    <t>2002-1</t>
-  </si>
-  <si>
-    <t>2002-2</t>
-  </si>
-  <si>
-    <t>2002-3</t>
-  </si>
-  <si>
-    <t>2002-4</t>
-  </si>
-  <si>
-    <t>2003-1</t>
-  </si>
-  <si>
-    <t>2003-2</t>
-  </si>
-  <si>
-    <t>2003-3</t>
-  </si>
-  <si>
-    <t>2003-4</t>
-  </si>
-  <si>
-    <t>2004-1</t>
-  </si>
-  <si>
-    <t>2004-2</t>
-  </si>
-  <si>
-    <t>2004-3</t>
-  </si>
-  <si>
-    <t>2004-4</t>
-  </si>
-  <si>
-    <t>2005-1</t>
-  </si>
-  <si>
-    <t>2005-2</t>
-  </si>
-  <si>
-    <t>2005-3</t>
-  </si>
-  <si>
-    <t>2005-4</t>
-  </si>
-  <si>
-    <t>2006-1</t>
-  </si>
-  <si>
-    <t>2006-2</t>
-  </si>
-  <si>
-    <t>2006-3</t>
-  </si>
-  <si>
-    <t>2006-4</t>
-  </si>
-  <si>
-    <t>2007-1</t>
-  </si>
-  <si>
-    <t>2007-2</t>
-  </si>
-  <si>
-    <t>2007-3</t>
-  </si>
-  <si>
-    <t>2007-4</t>
-  </si>
-  <si>
-    <t>2008-1</t>
-  </si>
-  <si>
-    <t>2008-2</t>
-  </si>
-  <si>
-    <t>2008-3</t>
-  </si>
-  <si>
-    <t>2008-4</t>
-  </si>
-  <si>
-    <t>2009-1</t>
-  </si>
-  <si>
-    <t>2009-2</t>
-  </si>
-  <si>
-    <t>2009-3</t>
-  </si>
-  <si>
-    <t>2009-4</t>
-  </si>
-  <si>
-    <t>2010-1</t>
-  </si>
-  <si>
-    <t>2010-2</t>
-  </si>
-  <si>
-    <t>2010-3</t>
-  </si>
-  <si>
-    <t>2010-4</t>
-  </si>
-  <si>
-    <t>2011-1</t>
-  </si>
-  <si>
-    <t>2011-2</t>
-  </si>
-  <si>
-    <t>2011-3</t>
-  </si>
-  <si>
-    <t>2011-4</t>
-  </si>
-  <si>
-    <t>2012-1</t>
-  </si>
-  <si>
-    <t>2012-2</t>
-  </si>
-  <si>
-    <t>2012-3</t>
-  </si>
-  <si>
-    <t>2012-4</t>
-  </si>
-  <si>
-    <t>2013-1</t>
-  </si>
-  <si>
-    <t>2013-2</t>
-  </si>
-  <si>
-    <t>2013-3</t>
-  </si>
-  <si>
-    <t>2013-4</t>
-  </si>
-  <si>
-    <t>2014-1</t>
-  </si>
-  <si>
-    <t>2014-2</t>
-  </si>
-  <si>
-    <t>2014-3</t>
-  </si>
-  <si>
-    <t>2014-4</t>
-  </si>
-  <si>
-    <t>2015-1</t>
-  </si>
-  <si>
-    <t>2015-2</t>
-  </si>
-  <si>
-    <t>2015-3</t>
-  </si>
-  <si>
-    <t>2015-4</t>
-  </si>
-  <si>
-    <t>2016-1</t>
-  </si>
-  <si>
-    <t>2016-2</t>
-  </si>
-  <si>
-    <t>2016-3</t>
-  </si>
-  <si>
-    <t>2016-4</t>
-  </si>
-  <si>
-    <t>2017-1</t>
-  </si>
-  <si>
-    <t>2017-2</t>
-  </si>
-  <si>
-    <t>2017-3</t>
-  </si>
-  <si>
-    <t>2017-4</t>
-  </si>
-  <si>
-    <t>2018-1</t>
-  </si>
-  <si>
-    <t>2018-2</t>
-  </si>
-  <si>
-    <t>2018-3</t>
-  </si>
-  <si>
-    <t>2018-4</t>
-  </si>
-  <si>
     <t>Trimestre</t>
   </si>
   <si>
     <t>Año</t>
+  </si>
+  <si>
+    <t>2002T1</t>
+  </si>
+  <si>
+    <t>2002T2</t>
+  </si>
+  <si>
+    <t>2002T3</t>
+  </si>
+  <si>
+    <t>2002T4</t>
+  </si>
+  <si>
+    <t>2003T1</t>
+  </si>
+  <si>
+    <t>2003T2</t>
+  </si>
+  <si>
+    <t>2003T3</t>
+  </si>
+  <si>
+    <t>2003T4</t>
+  </si>
+  <si>
+    <t>2004T1</t>
+  </si>
+  <si>
+    <t>2004T2</t>
+  </si>
+  <si>
+    <t>2004T3</t>
+  </si>
+  <si>
+    <t>2004T4</t>
+  </si>
+  <si>
+    <t>2005T1</t>
+  </si>
+  <si>
+    <t>2005T2</t>
+  </si>
+  <si>
+    <t>2005T3</t>
+  </si>
+  <si>
+    <t>2005T4</t>
+  </si>
+  <si>
+    <t>2006T1</t>
+  </si>
+  <si>
+    <t>2006T2</t>
+  </si>
+  <si>
+    <t>2006T3</t>
+  </si>
+  <si>
+    <t>2006T4</t>
+  </si>
+  <si>
+    <t>2007T1</t>
+  </si>
+  <si>
+    <t>2007T2</t>
+  </si>
+  <si>
+    <t>2007T3</t>
+  </si>
+  <si>
+    <t>2007T4</t>
+  </si>
+  <si>
+    <t>2008T1</t>
+  </si>
+  <si>
+    <t>2008T2</t>
+  </si>
+  <si>
+    <t>2008T3</t>
+  </si>
+  <si>
+    <t>2008T4</t>
+  </si>
+  <si>
+    <t>2009T1</t>
+  </si>
+  <si>
+    <t>2009T2</t>
+  </si>
+  <si>
+    <t>2009T3</t>
+  </si>
+  <si>
+    <t>2009T4</t>
+  </si>
+  <si>
+    <t>2010T1</t>
+  </si>
+  <si>
+    <t>2010T2</t>
+  </si>
+  <si>
+    <t>2010T3</t>
+  </si>
+  <si>
+    <t>2010T4</t>
+  </si>
+  <si>
+    <t>2011T1</t>
+  </si>
+  <si>
+    <t>2011T2</t>
+  </si>
+  <si>
+    <t>2011T3</t>
+  </si>
+  <si>
+    <t>2011T4</t>
+  </si>
+  <si>
+    <t>2012T1</t>
+  </si>
+  <si>
+    <t>2012T2</t>
+  </si>
+  <si>
+    <t>2012T3</t>
+  </si>
+  <si>
+    <t>2012T4</t>
+  </si>
+  <si>
+    <t>2013T1</t>
+  </si>
+  <si>
+    <t>2013T2</t>
+  </si>
+  <si>
+    <t>2013T3</t>
+  </si>
+  <si>
+    <t>2013T4</t>
+  </si>
+  <si>
+    <t>2014T1</t>
+  </si>
+  <si>
+    <t>2014T2</t>
+  </si>
+  <si>
+    <t>2014T3</t>
+  </si>
+  <si>
+    <t>2014T4</t>
+  </si>
+  <si>
+    <t>2015T1</t>
+  </si>
+  <si>
+    <t>2015T2</t>
+  </si>
+  <si>
+    <t>2015T3</t>
+  </si>
+  <si>
+    <t>2015T4</t>
+  </si>
+  <si>
+    <t>2016T1</t>
+  </si>
+  <si>
+    <t>2016T2</t>
+  </si>
+  <si>
+    <t>2016T3</t>
+  </si>
+  <si>
+    <t>2016T4</t>
+  </si>
+  <si>
+    <t>2017T1</t>
+  </si>
+  <si>
+    <t>2017T2</t>
+  </si>
+  <si>
+    <t>2017T3</t>
+  </si>
+  <si>
+    <t>2017T4</t>
+  </si>
+  <si>
+    <t>2018T1</t>
+  </si>
+  <si>
+    <t>2018T2</t>
+  </si>
+  <si>
+    <t>2018T3</t>
+  </si>
+  <si>
+    <t>2018T4</t>
   </si>
 </sst>
 </file>
@@ -587,14 +587,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="B70" sqref="B70"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.140625" customWidth="1"/>
+    <col min="2" max="3" width="9.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -611,10 +613,10 @@
         <v>4</v>
       </c>
       <c r="E1" t="s">
-        <v>73</v>
+        <v>5</v>
       </c>
       <c r="F1" t="s">
-        <v>74</v>
+        <v>6</v>
       </c>
       <c r="G1" t="s">
         <v>1</v>
@@ -640,7 +642,7 @@
         <v>2002</v>
       </c>
       <c r="G2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -663,7 +665,7 @@
         <v>2002</v>
       </c>
       <c r="G3" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -686,7 +688,7 @@
         <v>2002</v>
       </c>
       <c r="G4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -709,7 +711,7 @@
         <v>2002</v>
       </c>
       <c r="G5" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -732,7 +734,7 @@
         <v>2003</v>
       </c>
       <c r="G6" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -755,7 +757,7 @@
         <v>2003</v>
       </c>
       <c r="G7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -778,7 +780,7 @@
         <v>2003</v>
       </c>
       <c r="G8" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -801,7 +803,7 @@
         <v>2003</v>
       </c>
       <c r="G9" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -824,7 +826,7 @@
         <v>2004</v>
       </c>
       <c r="G10" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
@@ -847,7 +849,7 @@
         <v>2004</v>
       </c>
       <c r="G11" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -870,7 +872,7 @@
         <v>2004</v>
       </c>
       <c r="G12" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -893,7 +895,7 @@
         <v>2004</v>
       </c>
       <c r="G13" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -916,7 +918,7 @@
         <v>2005</v>
       </c>
       <c r="G14" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -939,7 +941,7 @@
         <v>2005</v>
       </c>
       <c r="G15" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -962,7 +964,7 @@
         <v>2005</v>
       </c>
       <c r="G16" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -985,7 +987,7 @@
         <v>2005</v>
       </c>
       <c r="G17" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -1008,7 +1010,7 @@
         <v>2006</v>
       </c>
       <c r="G18" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -1031,7 +1033,7 @@
         <v>2006</v>
       </c>
       <c r="G19" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -1054,7 +1056,7 @@
         <v>2006</v>
       </c>
       <c r="G20" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -1077,7 +1079,7 @@
         <v>2006</v>
       </c>
       <c r="G21" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -1100,7 +1102,7 @@
         <v>2007</v>
       </c>
       <c r="G22" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -1123,7 +1125,7 @@
         <v>2007</v>
       </c>
       <c r="G23" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -1146,7 +1148,7 @@
         <v>2007</v>
       </c>
       <c r="G24" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -1169,7 +1171,7 @@
         <v>2007</v>
       </c>
       <c r="G25" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -1192,7 +1194,7 @@
         <v>2008</v>
       </c>
       <c r="G26" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -1215,7 +1217,7 @@
         <v>2008</v>
       </c>
       <c r="G27" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -1238,7 +1240,7 @@
         <v>2008</v>
       </c>
       <c r="G28" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
@@ -1261,7 +1263,7 @@
         <v>2008</v>
       </c>
       <c r="G29" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
@@ -1284,7 +1286,7 @@
         <v>2009</v>
       </c>
       <c r="G30" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
@@ -1307,7 +1309,7 @@
         <v>2009</v>
       </c>
       <c r="G31" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
@@ -1330,7 +1332,7 @@
         <v>2009</v>
       </c>
       <c r="G32" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
@@ -1353,7 +1355,7 @@
         <v>2009</v>
       </c>
       <c r="G33" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
@@ -1376,7 +1378,7 @@
         <v>2010</v>
       </c>
       <c r="G34" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
@@ -1399,7 +1401,7 @@
         <v>2010</v>
       </c>
       <c r="G35" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
@@ -1422,7 +1424,7 @@
         <v>2010</v>
       </c>
       <c r="G36" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
@@ -1445,7 +1447,7 @@
         <v>2010</v>
       </c>
       <c r="G37" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
@@ -1468,7 +1470,7 @@
         <v>2011</v>
       </c>
       <c r="G38" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
@@ -1491,7 +1493,7 @@
         <v>2011</v>
       </c>
       <c r="G39" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
@@ -1514,7 +1516,7 @@
         <v>2011</v>
       </c>
       <c r="G40" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
@@ -1537,7 +1539,7 @@
         <v>2011</v>
       </c>
       <c r="G41" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
@@ -1560,7 +1562,7 @@
         <v>2012</v>
       </c>
       <c r="G42" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
@@ -1583,7 +1585,7 @@
         <v>2012</v>
       </c>
       <c r="G43" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
@@ -1606,7 +1608,7 @@
         <v>2012</v>
       </c>
       <c r="G44" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
@@ -1629,7 +1631,7 @@
         <v>2012</v>
       </c>
       <c r="G45" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
@@ -1652,7 +1654,7 @@
         <v>2013</v>
       </c>
       <c r="G46" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
@@ -1675,7 +1677,7 @@
         <v>2013</v>
       </c>
       <c r="G47" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
@@ -1698,7 +1700,7 @@
         <v>2013</v>
       </c>
       <c r="G48" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
@@ -1721,7 +1723,7 @@
         <v>2013</v>
       </c>
       <c r="G49" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
@@ -1744,7 +1746,7 @@
         <v>2014</v>
       </c>
       <c r="G50" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
@@ -1767,7 +1769,7 @@
         <v>2014</v>
       </c>
       <c r="G51" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
@@ -1790,7 +1792,7 @@
         <v>2014</v>
       </c>
       <c r="G52" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
@@ -1813,7 +1815,7 @@
         <v>2014</v>
       </c>
       <c r="G53" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
@@ -1836,7 +1838,7 @@
         <v>2015</v>
       </c>
       <c r="G54" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
@@ -1859,7 +1861,7 @@
         <v>2015</v>
       </c>
       <c r="G55" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
@@ -1882,7 +1884,7 @@
         <v>2015</v>
       </c>
       <c r="G56" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
@@ -1905,7 +1907,7 @@
         <v>2015</v>
       </c>
       <c r="G57" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
@@ -1928,7 +1930,7 @@
         <v>2016</v>
       </c>
       <c r="G58" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
@@ -1951,7 +1953,7 @@
         <v>2016</v>
       </c>
       <c r="G59" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
@@ -1974,7 +1976,7 @@
         <v>2016</v>
       </c>
       <c r="G60" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
@@ -1997,7 +1999,7 @@
         <v>2016</v>
       </c>
       <c r="G61" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
@@ -2020,7 +2022,7 @@
         <v>2017</v>
       </c>
       <c r="G62" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
@@ -2043,7 +2045,7 @@
         <v>2017</v>
       </c>
       <c r="G63" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
@@ -2066,7 +2068,7 @@
         <v>2017</v>
       </c>
       <c r="G64" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
@@ -2089,7 +2091,7 @@
         <v>2017</v>
       </c>
       <c r="G65" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
@@ -2112,7 +2114,7 @@
         <v>2018</v>
       </c>
       <c r="G66" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
@@ -2135,7 +2137,7 @@
         <v>2018</v>
       </c>
       <c r="G67" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
@@ -2158,7 +2160,7 @@
         <v>2018</v>
       </c>
       <c r="G68" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
@@ -2181,7 +2183,7 @@
         <v>2018</v>
       </c>
       <c r="G69" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
